--- a/homework6/trace.xlsx
+++ b/homework6/trace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory-PC\Desktop\homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC7E464-00CC-4640-AFDD-7B283E2FD8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BD69A5-A80C-4EC9-8416-23633FB5F7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
   <si>
     <t>Complete the following tracing tables by examining your pseudocode.</t>
   </si>
@@ -165,9 +165,6 @@
     <t>?,0</t>
   </si>
   <si>
-    <t>?,1,-1</t>
-  </si>
-  <si>
     <t>char[25]</t>
   </si>
   <si>
@@ -192,41 +189,217 @@
     <t>1-1 Chiyoda</t>
   </si>
   <si>
-    <t>?,6000</t>
-  </si>
-  <si>
-    <t>?,5000,5000</t>
-  </si>
-  <si>
-    <t>5000, 6000</t>
-  </si>
-  <si>
-    <t>?,1,0</t>
-  </si>
-  <si>
-    <t>?,0,1</t>
-  </si>
-  <si>
-    <t>?,8000</t>
-  </si>
-  <si>
-    <t>?,5000,6000,5000</t>
-  </si>
-  <si>
-    <t>6000,  8000</t>
-  </si>
-  <si>
     <t>cory parker</t>
   </si>
   <si>
     <t>Note3: if the variable is a character array (not a character pointer C), show the string in the “value” section.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 6000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?,1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?,5000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,6000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?,0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?,5000,6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  8000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -255,6 +428,17 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -388,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,11 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +1004,7 @@
   <dimension ref="B1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,7 +1036,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -1014,8 +1199,8 @@
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>36</v>
+      <c r="F19" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
@@ -1037,8 +1222,8 @@
       <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
+      <c r="F20" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -1231,19 +1416,19 @@
       <c r="E35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="19" t="s">
+      <c r="F35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1263,16 +1448,16 @@
       <c r="F36" s="5">
         <v>1300</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="18">
         <v>5000</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="18">
         <v>1300</v>
       </c>
     </row>
@@ -1289,20 +1474,20 @@
       <c r="E37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="F37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="18">
         <v>5004</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>39</v>
+      <c r="J37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -1321,17 +1506,17 @@
       <c r="F38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="18">
         <v>5029</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>40</v>
+      <c r="J38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -1347,19 +1532,19 @@
       <c r="E39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="19">
+      <c r="F39" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="18">
         <v>5079</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="18">
         <v>6000</v>
       </c>
     </row>
@@ -1376,15 +1561,15 @@
       <c r="E40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="20">
+      <c r="F40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="19">
         <v>5087</v>
       </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
@@ -1439,10 +1624,10 @@
         <v>22</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
@@ -1458,10 +1643,10 @@
         <v>23</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
@@ -1544,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
@@ -1563,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -1735,8 +1920,8 @@
       <c r="E60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>48</v>
+      <c r="F60" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="H60" s="5">
         <v>5004</v>
@@ -1745,10 +1930,10 @@
         <v>22</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
@@ -1764,8 +1949,8 @@
       <c r="E61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>49</v>
+      <c r="F61" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="H61" s="5">
         <v>5029</v>
@@ -1774,10 +1959,10 @@
         <v>23</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
@@ -1793,7 +1978,7 @@
       <c r="E62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="23" t="s">
         <v>51</v>
       </c>
       <c r="H62" s="5">
@@ -1805,8 +1990,8 @@
       <c r="J62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="18" t="s">
-        <v>52</v>
+      <c r="K62" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
@@ -1822,15 +2007,15 @@
       <c r="E63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>50</v>
+      <c r="F63" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="H63" s="15">
         <v>5087</v>
       </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="5">
@@ -1840,16 +2025,16 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="19" t="s">
+      <c r="I64" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="19" t="s">
+      <c r="K64" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1859,16 +2044,16 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="H65" s="19">
+      <c r="H65" s="18">
         <v>6000</v>
       </c>
-      <c r="I65" s="19" t="s">
+      <c r="I65" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K65" s="18">
         <v>1100</v>
       </c>
     </row>
@@ -1878,17 +2063,17 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="H66" s="19">
+      <c r="H66" s="18">
         <v>6004</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>41</v>
+      <c r="J66" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
@@ -1897,17 +2082,17 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="H67" s="19">
+      <c r="H67" s="18">
         <v>6029</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J67" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>42</v>
+      <c r="J67" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
@@ -1916,16 +2101,16 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="H68" s="19">
+      <c r="H68" s="18">
         <v>6079</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="J68" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K68" s="18">
         <v>8000</v>
       </c>
     </row>
@@ -1935,12 +2120,12 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="H69" s="20">
+      <c r="H69" s="19">
         <v>6087</v>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
@@ -1983,10 +2168,10 @@
         <v>22</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
@@ -1997,10 +2182,10 @@
         <v>23</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
@@ -2027,7 +2212,7 @@
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
